--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s0_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1856.097992065602</v>
+        <v>1330.329728494958</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.31204711617629</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0516153221304</v>
+        <v>11.34615423506322</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.70756027154879</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1326.690000000007</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.4400000000001</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,20 +631,9 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>19.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.88634790002131</v>
+        <v>23.2375891022531</v>
       </c>
     </row>
     <row r="5">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.435603481021957</v>
+        <v>35.91835541786301</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>33.18449368032031</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.56439651897804</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>44.79148430448686</v>
+        <v>41.34615423506322</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1026,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1040,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1054,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1071,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1082,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1096,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1110,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1124,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1138,15 +1127,85 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>138.4050000000002</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1260,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.36</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1271,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>162.115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1282,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>164.315</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1293,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>160.24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1304,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>249.805000000001</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1315,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>278.4250000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1326,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>278.8300000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1337,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>289.5250000000008</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1348,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>282.8700000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1359,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1370,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1381,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1392,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1403,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9399999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1414,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
@@ -1425,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -1436,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -1447,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -1458,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -1469,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>70.22999999999969</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -1480,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>80.22999999999959</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1491,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>86.27499999999957</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>87.40499999999956</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1513,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>84.38999999999957</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -1524,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1535,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1546,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1557,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1568,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.9399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1579,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>249.805000000001</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
@@ -1590,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>278.4250000000008</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
@@ -1601,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>278.8300000000008</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
@@ -1612,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>289.5250000000008</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41">
@@ -1623,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>282.8700000000008</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.560000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1681,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1692,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1703,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.72999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1714,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.939999999999344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1725,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.80500000000103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
@@ -1736,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>128.4250000000008</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1747,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>128.8300000000008</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -1758,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>139.5250000000008</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
@@ -1769,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>132.8700000000008</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1816,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1827,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1838,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1849,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1860,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1871,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1882,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1893,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1904,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1915,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1926,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1937,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1948,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1959,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1970,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1981,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1992,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2003,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2014,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2025,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2036,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2047,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2058,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2069,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2080,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,10 +2180,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2132,10 +2191,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2143,10 +2202,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2154,10 +2213,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2168,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2176,10 +2235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2187,10 +2246,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2198,10 +2257,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2209,10 +2268,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2220,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2231,10 +2290,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2242,10 +2301,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2253,10 +2312,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2264,12 +2323,23 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
